--- a/AAII_Financials/Quarterly/GSFI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSFI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>GSFI</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,64 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>41486</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>41394</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>41213</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>41121</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>41029</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>40847</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>40755</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -742,8 +750,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -771,8 +785,14 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,8 +820,14 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +839,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +870,14 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +905,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,37 +940,49 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
+      <c r="F15" s="3">
+        <v>0</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,20 +991,22 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
@@ -960,16 +1014,22 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -977,10 +1037,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -989,16 +1049,22 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1076,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1019,10 +1087,10 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1039,8 +1107,14 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1048,13 +1122,13 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
@@ -1068,8 +1142,14 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1082,8 +1162,8 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
@@ -1091,14 +1171,20 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1106,10 +1192,10 @@
         <v>-600</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -1118,16 +1204,22 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1247,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,8 +1282,14 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1193,10 +1297,10 @@
         <v>-600</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -1205,16 +1309,22 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1222,10 +1332,10 @@
         <v>-600</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -1234,16 +1344,22 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1387,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1422,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1457,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1492,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1367,10 +1507,10 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1387,8 +1527,14 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1396,10 +1542,10 @@
         <v>-600</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -1408,16 +1554,22 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,8 +1597,14 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1454,10 +1612,10 @@
         <v>-600</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -1466,50 +1624,62 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>41486</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>41394</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>41213</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>41121</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>41029</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>40847</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>40755</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1691,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,8 +1706,10 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1551,20 +1725,26 @@
       <c r="G41" s="3">
         <v>0</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
+      <c r="H41" s="3">
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
+      <c r="J41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,37 +1772,49 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,8 +1842,14 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1679,8 +1877,14 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1708,8 +1912,14 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,8 +1947,14 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1746,57 +1962,69 @@
         <v>1100</v>
       </c>
       <c r="E48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G48" s="3">
         <v>200</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>1200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L48" s="3">
         <v>1300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>200</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
+      <c r="E49" s="3">
+        <v>200</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J49" s="3">
-        <v>1400</v>
+        <v>0</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M49" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2052,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +2087,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1882,8 +2122,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2157,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>1200</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K54" s="3">
         <v>2600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2211,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,19 +2226,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
+      <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>100</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>4</v>
@@ -1995,66 +2257,84 @@
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="E58" s="3">
         <v>800</v>
       </c>
       <c r="F58" s="3">
+        <v>400</v>
+      </c>
+      <c r="G58" s="3">
+        <v>800</v>
+      </c>
+      <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2082,8 +2362,14 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,8 +2397,14 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2140,8 +2432,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2467,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2502,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2537,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>900</v>
+      </c>
+      <c r="F66" s="3">
         <v>600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2591,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2622,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2657,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2692,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2727,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2800</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-1500</v>
+      <c r="J72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K72" s="3">
         <v>-1300</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-1300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2797,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2832,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2867,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>300</v>
+      </c>
+      <c r="F76" s="3">
         <v>600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>500</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K76" s="3">
         <v>1700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,42 +2937,54 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>41486</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>41394</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>41213</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>41121</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>41029</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>40847</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>40755</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2602,10 +2992,10 @@
         <v>-600</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
@@ -2614,16 +3004,22 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +3031,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2652,20 +3050,26 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3097,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3132,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3167,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3202,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,23 +3237,29 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>4</v>
       </c>
@@ -2838,8 +3272,14 @@
       <c r="K89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,22 +3291,24 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-200</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -2880,8 +3322,14 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3357,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,22 +3392,28 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-200</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -2967,8 +3427,14 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3446,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3477,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3512,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3547,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,22 +3582,28 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>900</v>
+      </c>
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
@@ -3125,8 +3617,14 @@
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,8 +3652,14 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3165,11 +3669,11 @@
       <c r="E102" s="3">
         <v>0</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>4</v>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>4</v>
@@ -3181,6 +3685,12 @@
         <v>4</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GSFI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSFI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>GSFI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,64 +665,71 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>41486</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>41394</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>41213</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>41121</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>41029</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>40847</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>40755</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -756,8 +763,14 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -791,8 +804,14 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +845,14 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +866,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -876,8 +903,14 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,8 +944,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -920,22 +959,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -946,8 +985,14 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -963,26 +1008,32 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -993,26 +1044,28 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -1020,16 +1073,22 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1037,17 +1096,17 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
@@ -1055,16 +1114,22 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1078,8 +1143,10 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1087,17 +1154,17 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1113,8 +1180,14 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1122,19 +1195,19 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-500</v>
+        <v>-7900</v>
       </c>
       <c r="F21" s="3">
         <v>-600</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+        <v>-500</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
@@ -1148,8 +1221,14 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1168,8 +1247,8 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1177,31 +1256,37 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-600</v>
+        <v>-1800</v>
       </c>
       <c r="E23" s="3">
-        <v>-500</v>
+        <v>-7900</v>
       </c>
       <c r="F23" s="3">
         <v>-600</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
@@ -1210,16 +1295,22 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1253,8 +1344,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1288,25 +1385,31 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-600</v>
+        <v>-1800</v>
       </c>
       <c r="E26" s="3">
-        <v>-500</v>
+        <v>-7900</v>
       </c>
       <c r="F26" s="3">
         <v>-600</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
@@ -1315,33 +1418,39 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-600</v>
+        <v>-1800</v>
       </c>
       <c r="E27" s="3">
-        <v>-500</v>
+        <v>-7900</v>
       </c>
       <c r="F27" s="3">
         <v>-600</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
@@ -1350,16 +1459,22 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1393,8 +1508,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1428,8 +1549,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1463,8 +1590,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1498,8 +1631,14 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1507,17 +1646,17 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1533,25 +1672,31 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-600</v>
+        <v>-1800</v>
       </c>
       <c r="E33" s="3">
-        <v>-500</v>
+        <v>-7900</v>
       </c>
       <c r="F33" s="3">
         <v>-600</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
@@ -1560,16 +1705,22 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1603,25 +1754,31 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-600</v>
+        <v>-1800</v>
       </c>
       <c r="E35" s="3">
-        <v>-500</v>
+        <v>-7900</v>
       </c>
       <c r="F35" s="3">
         <v>-600</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
@@ -1630,56 +1787,68 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>41486</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>41394</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>41213</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>41121</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>41029</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>40847</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>40755</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1693,8 +1862,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1708,8 +1879,10 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1731,20 +1904,26 @@
       <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
+      <c r="L41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1778,19 +1957,25 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -1798,23 +1983,29 @@
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1848,8 +2039,14 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1883,8 +2080,14 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1918,31 +2121,37 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -1953,13 +2162,19 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="E48" s="3">
         <v>1100</v>
@@ -1968,63 +2183,75 @@
         <v>1100</v>
       </c>
       <c r="G48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>1200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N48" s="3">
         <v>1300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>200</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
+      <c r="G49" s="3">
+        <v>200</v>
       </c>
       <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
       </c>
       <c r="K49" s="3">
-        <v>1400</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1400</v>
+        <v>0</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O49" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2058,8 +2285,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2093,8 +2326,14 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2128,8 +2367,14 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2163,43 +2408,55 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F54" s="3">
         <v>1200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>1200</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" s="3">
         <v>2600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2213,8 +2470,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2228,8 +2487,10 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2242,11 +2503,11 @@
       <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
+      <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>100</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>4</v>
@@ -2263,101 +2524,119 @@
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>600</v>
+      </c>
+      <c r="F58" s="3">
         <v>1000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>800</v>
-      </c>
-      <c r="F58" s="3">
-        <v>400</v>
       </c>
       <c r="G58" s="3">
         <v>800</v>
       </c>
       <c r="H58" s="3">
+        <v>400</v>
+      </c>
+      <c r="I58" s="3">
+        <v>800</v>
+      </c>
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
       </c>
       <c r="I59" s="3">
+        <v>200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>200</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J60" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
@@ -2368,8 +2647,14 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2403,8 +2688,14 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2438,8 +2729,14 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2473,8 +2770,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2508,8 +2811,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2543,43 +2852,55 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E66" s="3">
         <v>900</v>
       </c>
       <c r="F66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G66" s="3">
+        <v>900</v>
+      </c>
+      <c r="H66" s="3">
         <v>600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2593,8 +2914,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2628,8 +2951,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2663,8 +2992,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2698,8 +3033,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2733,43 +3074,55 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2800</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-1500</v>
+      <c r="L72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M72" s="3">
         <v>-1300</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-1300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2803,8 +3156,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2838,8 +3197,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2873,43 +3238,55 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>200</v>
+      </c>
+      <c r="F76" s="3">
         <v>100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>500</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="3">
         <v>1700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2943,65 +3320,77 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>41486</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>41394</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>41213</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>41121</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>41029</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>40847</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>40755</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-600</v>
+        <v>-1800</v>
       </c>
       <c r="E81" s="3">
-        <v>-500</v>
+        <v>-7900</v>
       </c>
       <c r="F81" s="3">
         <v>-600</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
@@ -3010,16 +3399,22 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3033,8 +3428,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3050,26 +3447,32 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3103,8 +3506,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3138,8 +3547,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3173,8 +3588,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3208,8 +3629,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3243,29 +3670,35 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>4</v>
       </c>
@@ -3278,8 +3711,14 @@
       <c r="M89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3293,28 +3732,30 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-200</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -3328,8 +3769,14 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3363,8 +3810,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3398,28 +3851,34 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-200</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
@@ -3433,8 +3892,14 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3448,8 +3913,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3483,8 +3950,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3518,8 +3991,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3553,8 +4032,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3588,28 +4073,34 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
@@ -3623,8 +4114,14 @@
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3658,8 +4155,14 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3675,11 +4178,11 @@
       <c r="G102" s="3">
         <v>0</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>4</v>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>4</v>
@@ -3691,6 +4194,12 @@
         <v>4</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GSFI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSFI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
   <si>
     <t>GSFI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,75 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41486</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41394</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41213</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41121</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41029</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40847</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>40755</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -769,8 +773,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,8 +817,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +861,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +881,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +923,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,34 +967,37 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -991,8 +1011,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1014,26 +1037,29 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
       <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,29 +1072,30 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>500</v>
       </c>
       <c r="G17" s="3">
         <v>500</v>
       </c>
       <c r="H17" s="3">
+        <v>500</v>
+      </c>
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
@@ -1079,16 +1106,19 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1096,20 +1126,20 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-7600</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-500</v>
       </c>
       <c r="G18" s="3">
         <v>-500</v>
       </c>
       <c r="H18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
@@ -1120,16 +1150,19 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1178,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1154,19 +1188,19 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1186,8 +1220,11 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1195,22 +1232,22 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-7900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="J21" s="3">
+        <v>0</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1227,8 +1264,11 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1253,14 +1293,14 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1268,29 +1308,32 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
@@ -1301,16 +1344,19 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1396,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,29 +1440,32 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
@@ -1424,37 +1476,40 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
@@ -1465,16 +1520,19 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1572,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1616,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1660,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1704,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1646,19 +1716,19 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1678,29 +1748,32 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
@@ -1711,16 +1784,19 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,29 +1836,32 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
@@ -1793,62 +1872,68 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41486</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41394</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41213</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41121</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41029</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40847</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>40755</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1949,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,8 +1967,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1910,11 +1997,11 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -1922,8 +2009,11 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,8 +2053,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1989,23 +2082,26 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,8 +2141,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2086,8 +2185,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2127,17 +2229,20 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3">
         <v>100</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2153,8 +2258,8 @@
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2168,16 +2273,19 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1300</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1100</v>
       </c>
       <c r="F48" s="3">
         <v>1100</v>
@@ -2189,39 +2297,42 @@
         <v>1100</v>
       </c>
       <c r="I48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J48" s="3">
         <v>200</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
       <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
         <v>1200</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3">
         <v>1200</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1300</v>
       </c>
       <c r="O48" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>200</v>
@@ -2229,20 +2340,20 @@
       <c r="H49" s="3">
         <v>200</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+      <c r="I49" s="3">
+        <v>200</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" s="3">
-        <v>1400</v>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>1400</v>
@@ -2250,8 +2361,11 @@
       <c r="O49" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2405,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,31 +2449,34 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2373,8 +2493,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2537,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1200</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1300</v>
       </c>
       <c r="H54" s="3">
         <v>1300</v>
       </c>
       <c r="I54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>1200</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M54" s="3">
-        <v>2600</v>
+      <c r="M54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N54" s="3">
         <v>2600</v>
       </c>
       <c r="O54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P54" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2601,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,8 +2619,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2509,8 +2640,8 @@
       <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
+      <c r="I57" s="3">
+        <v>100</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
@@ -2530,49 +2661,55 @@
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>600</v>
       </c>
       <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3">
-        <v>400</v>
+      <c r="L58" s="3">
+        <v>600</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>400</v>
       </c>
       <c r="O58" s="3">
+        <v>400</v>
+      </c>
+      <c r="P58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2583,13 +2720,13 @@
         <v>200</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
@@ -2598,49 +2735,52 @@
         <v>200</v>
       </c>
       <c r="K59" s="3">
+        <v>200</v>
+      </c>
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
       <c r="L60" s="3">
         <v>0</v>
       </c>
@@ -2653,8 +2793,11 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,8 +2837,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2735,8 +2881,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2925,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2969,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3013,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>800</v>
       </c>
       <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="L66" s="3">
+        <v>800</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N66" s="3">
         <v>900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3077,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3119,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3163,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3207,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3251,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1000</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-1400</v>
       </c>
       <c r="J72" s="3">
         <v>-1400</v>
       </c>
       <c r="K72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L72" s="3">
         <v>-2800</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3">
         <v>-1300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3339,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3383,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3427,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E76" s="3">
         <v>200</v>
       </c>
       <c r="F76" s="3">
+        <v>200</v>
+      </c>
+      <c r="G76" s="3">
         <v>100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>600</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-800</v>
       </c>
       <c r="J76" s="3">
         <v>-800</v>
       </c>
       <c r="K76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L76" s="3">
         <v>500</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N76" s="3">
         <v>1700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,75 +3515,81 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41486</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41394</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41213</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41121</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41029</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40847</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>40755</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
@@ -3405,16 +3600,19 @@
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3628,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3453,8 +3652,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -3462,8 +3661,8 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3471,8 +3670,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3714,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3758,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3802,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3846,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,8 +3890,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3685,23 +3902,23 @@
         <v>-1200</v>
       </c>
       <c r="E89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>4</v>
       </c>
@@ -3717,8 +3934,11 @@
       <c r="O89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,22 +3954,23 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
@@ -3757,8 +3978,8 @@
       <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>-200</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -3775,8 +3996,11 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4040,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,32 +4084,35 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
@@ -3898,8 +4128,11 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4148,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4190,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4234,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4278,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,31 +4322,34 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E100" s="3">
         <v>1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
@@ -4120,8 +4366,11 @@
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,8 +4410,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4184,8 +4436,8 @@
       <c r="I102" s="3">
         <v>0</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>4</v>
@@ -4200,6 +4452,9 @@
         <v>4</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GSFI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSFI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>GSFI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,79 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41486</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41394</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41213</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41121</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41029</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>40847</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>40755</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -776,8 +780,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -820,8 +827,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -864,8 +874,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,8 +895,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -926,8 +940,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,37 +987,40 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>600</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1014,8 +1034,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1040,26 +1063,29 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
       <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>100</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,32 +1099,33 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>2300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>500</v>
       </c>
       <c r="H17" s="3">
         <v>500</v>
       </c>
       <c r="I17" s="3">
+        <v>500</v>
+      </c>
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
@@ -1109,16 +1136,19 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1126,23 +1156,23 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-500</v>
       </c>
       <c r="H18" s="3">
         <v>-500</v>
       </c>
       <c r="I18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
@@ -1153,16 +1183,19 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,8 +1212,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1191,19 +1225,19 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>-100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1223,8 +1257,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1232,25 +1269,25 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
+      <c r="K21" s="3">
+        <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
@@ -1267,8 +1304,11 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1296,14 +1336,14 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1311,32 +1351,35 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
@@ -1347,16 +1390,19 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1399,8 +1445,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,32 +1492,35 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
@@ -1479,40 +1531,43 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
@@ -1523,16 +1578,19 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1633,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1680,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1727,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,8 +1774,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1719,19 +1789,19 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1751,32 +1821,35 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
@@ -1787,16 +1860,19 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,32 +1915,35 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
@@ -1875,65 +1954,71 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41486</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41394</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41213</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41121</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41029</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>40847</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>40755</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2035,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,8 +2054,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2000,11 +2087,11 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2012,8 +2099,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,8 +2146,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2085,23 +2178,26 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2144,8 +2240,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2188,8 +2287,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2232,20 +2334,23 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3">
         <v>100</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2261,8 +2366,8 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2276,8 +2381,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2285,10 +2393,10 @@
         <v>500</v>
       </c>
       <c r="E48" s="3">
+        <v>500</v>
+      </c>
+      <c r="F48" s="3">
         <v>1300</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1100</v>
       </c>
       <c r="G48" s="3">
         <v>1100</v>
@@ -2300,42 +2408,45 @@
         <v>1100</v>
       </c>
       <c r="J48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K48" s="3">
         <v>200</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
       <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
         <v>1200</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3">
         <v>1200</v>
-      </c>
-      <c r="O48" s="3">
-        <v>1300</v>
       </c>
       <c r="P48" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>200</v>
@@ -2343,20 +2454,20 @@
       <c r="I49" s="3">
         <v>200</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="J49" s="3">
+        <v>200</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N49" s="3">
-        <v>1400</v>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>1400</v>
@@ -2364,8 +2475,11 @@
       <c r="P49" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2522,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,17 +2569,20 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>700</v>
+      </c>
+      <c r="E52" s="3">
         <v>500</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2478,8 +2598,8 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2496,8 +2616,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,52 +2663,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1200</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1300</v>
       </c>
       <c r="I54" s="3">
         <v>1300</v>
       </c>
       <c r="J54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>1200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N54" s="3">
-        <v>2600</v>
+      <c r="N54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O54" s="3">
         <v>2600</v>
       </c>
       <c r="P54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q54" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2731,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,13 +2750,14 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -2643,8 +2774,8 @@
       <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
+      <c r="J57" s="3">
+        <v>100</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
@@ -2664,57 +2795,63 @@
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>800</v>
-      </c>
-      <c r="K58" s="3">
-        <v>600</v>
       </c>
       <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N58" s="3">
-        <v>400</v>
+      <c r="M58" s="3">
+        <v>600</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>400</v>
       </c>
       <c r="P58" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
@@ -2723,13 +2860,13 @@
         <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
@@ -2738,52 +2875,55 @@
         <v>200</v>
       </c>
       <c r="L59" s="3">
+        <v>200</v>
+      </c>
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
       <c r="M60" s="3">
         <v>0</v>
       </c>
@@ -2796,8 +2936,11 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2840,8 +2983,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2884,8 +3030,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3077,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3124,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,52 +3171,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1000</v>
-      </c>
-      <c r="K66" s="3">
-        <v>800</v>
       </c>
       <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="M66" s="3">
+        <v>800</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3239,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3284,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3331,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3378,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,52 +3425,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-1400</v>
       </c>
       <c r="K72" s="3">
         <v>-1400</v>
       </c>
       <c r="L72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M72" s="3">
         <v>-2800</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="3">
         <v>-1300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3519,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3566,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3613,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F76" s="3">
         <v>200</v>
       </c>
       <c r="G76" s="3">
+        <v>200</v>
+      </c>
+      <c r="H76" s="3">
         <v>100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>600</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-800</v>
       </c>
       <c r="K76" s="3">
         <v>-800</v>
       </c>
       <c r="L76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M76" s="3">
         <v>500</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O76" s="3">
         <v>1700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,81 +3707,87 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41486</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41394</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41213</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41121</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41029</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>40847</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>40755</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
@@ -3603,16 +3798,19 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,8 +3827,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3655,8 +3854,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
@@ -3664,8 +3863,8 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -3673,8 +3872,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3919,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3966,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4013,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4060,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,35 +4107,38 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1200</v>
+        <v>-900</v>
       </c>
       <c r="E89" s="3">
         <v>-1200</v>
       </c>
       <c r="F89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-2700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>4</v>
       </c>
@@ -3937,8 +4154,11 @@
       <c r="P89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,25 +4175,26 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>100</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
@@ -3981,8 +4202,8 @@
       <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>-200</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -3999,8 +4220,11 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4267,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,35 +4314,38 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
@@ -4131,8 +4361,11 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4382,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4427,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4474,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4521,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,34 +4568,37 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
         <v>1400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
@@ -4369,8 +4615,11 @@
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4413,8 +4662,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4439,8 +4691,8 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>4</v>
@@ -4455,6 +4707,9 @@
         <v>4</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GSFI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSFI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
   <si>
     <t>GSFI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,79 +665,82 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41486</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41394</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41213</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41121</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>41029</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>40847</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>40755</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -783,8 +786,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -830,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -877,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -896,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -943,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -990,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -999,31 +1018,31 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1037,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1066,26 +1088,29 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
       <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1100,35 +1125,36 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>500</v>
       </c>
       <c r="I17" s="3">
         <v>500</v>
       </c>
       <c r="J17" s="3">
+        <v>500</v>
+      </c>
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
@@ -1139,16 +1165,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1156,26 +1185,26 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-500</v>
       </c>
       <c r="I18" s="3">
         <v>-500</v>
       </c>
       <c r="J18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
@@ -1186,16 +1215,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1213,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1228,19 +1261,19 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1260,8 +1293,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1269,28 +1305,28 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
+      <c r="L21" s="3">
+        <v>0</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
@@ -1307,8 +1343,11 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1339,14 +1378,14 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1354,35 +1393,38 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
@@ -1393,16 +1435,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1448,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1495,35 +1543,38 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
@@ -1534,43 +1585,46 @@
         <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
@@ -1581,16 +1635,19 @@
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1636,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1683,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1730,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1777,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1792,19 +1861,19 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -1824,35 +1893,38 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
@@ -1863,16 +1935,19 @@
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1918,35 +1993,38 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
@@ -1957,68 +2035,74 @@
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41486</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41394</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41213</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41121</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>41029</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>40847</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>40755</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2036,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2055,8 +2140,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2090,11 +2176,11 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -2102,8 +2188,11 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2149,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2181,23 +2273,26 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2243,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2290,8 +2388,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2337,8 +2438,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2348,12 +2452,12 @@
       <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3">
         <v>100</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2369,8 +2473,8 @@
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2384,19 +2488,22 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
         <v>500</v>
       </c>
       <c r="F48" s="3">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="G48" s="3">
         <v>1100</v>
@@ -2411,45 +2518,48 @@
         <v>1100</v>
       </c>
       <c r="K48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L48" s="3">
         <v>200</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
       <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
         <v>1200</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3">
         <v>1200</v>
-      </c>
-      <c r="P48" s="3">
-        <v>1300</v>
       </c>
       <c r="Q48" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
+      <c r="D49" s="3">
+        <v>700</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
       </c>
       <c r="H49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>200</v>
@@ -2457,20 +2567,20 @@
       <c r="J49" s="3">
         <v>200</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3">
+        <v>200</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="3">
-        <v>1400</v>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>1400</v>
@@ -2478,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2525,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2572,20 +2688,23 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3">
         <v>700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>500</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2601,8 +2720,8 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2619,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2666,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1100</v>
       </c>
-      <c r="F54" s="3">
-        <v>1400</v>
-      </c>
       <c r="G54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H54" s="3">
         <v>1100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1200</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1300</v>
       </c>
       <c r="J54" s="3">
         <v>1300</v>
       </c>
       <c r="K54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>1200</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O54" s="3">
-        <v>2600</v>
+      <c r="O54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P54" s="3">
         <v>2600</v>
       </c>
       <c r="Q54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="R54" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2732,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2751,16 +2880,17 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -2777,8 +2907,8 @@
       <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
+      <c r="K57" s="3">
+        <v>100</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
@@ -2798,8 +2928,11 @@
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2807,46 +2940,49 @@
         <v>1100</v>
       </c>
       <c r="E58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3">
-        <v>900</v>
-      </c>
       <c r="G58" s="3">
+        <v>700</v>
+      </c>
+      <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
-      </c>
-      <c r="L58" s="3">
-        <v>600</v>
       </c>
       <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O58" s="3">
-        <v>400</v>
+      <c r="N58" s="3">
+        <v>600</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>400</v>
       </c>
       <c r="Q58" s="3">
+        <v>400</v>
+      </c>
+      <c r="R58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2854,7 +2990,7 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
@@ -2863,13 +2999,13 @@
         <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
@@ -2878,55 +3014,58 @@
         <v>200</v>
       </c>
       <c r="M59" s="3">
+        <v>200</v>
+      </c>
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
-        <v>1200</v>
-      </c>
       <c r="G60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
       <c r="N60" s="3">
         <v>0</v>
       </c>
@@ -2939,8 +3078,11 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2986,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3033,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3080,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3127,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3174,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
-        <v>1200</v>
-      </c>
       <c r="G66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H66" s="3">
         <v>900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
-      </c>
-      <c r="L66" s="3">
-        <v>800</v>
       </c>
       <c r="M66" s="3">
         <v>800</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="N66" s="3">
+        <v>800</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P66" s="3">
         <v>900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3240,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3287,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3334,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3381,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3428,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1000</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-1400</v>
       </c>
       <c r="L72" s="3">
         <v>-1400</v>
       </c>
       <c r="M72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="N72" s="3">
         <v>-2800</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3">
         <v>-1300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3522,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3569,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3616,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
         <v>-100</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
       <c r="F76" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G76" s="3">
         <v>200</v>
       </c>
       <c r="H76" s="3">
+        <v>200</v>
+      </c>
+      <c r="I76" s="3">
         <v>100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>600</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-800</v>
       </c>
       <c r="L76" s="3">
         <v>-800</v>
       </c>
       <c r="M76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N76" s="3">
         <v>500</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P76" s="3">
         <v>1700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3710,87 +3898,93 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41486</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41394</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41213</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41121</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>41029</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>40847</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>40755</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
@@ -3801,16 +3995,19 @@
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3828,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3857,8 +4055,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
@@ -3866,8 +4064,8 @@
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -3875,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3922,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3969,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4016,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4063,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4110,38 +4323,41 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-1200</v>
       </c>
       <c r="F89" s="3">
         <v>-1200</v>
       </c>
       <c r="G89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-2700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>4</v>
       </c>
@@ -4157,8 +4373,11 @@
       <c r="Q89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4176,28 +4395,29 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>100</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
@@ -4205,8 +4425,8 @@
       <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>-200</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -4223,8 +4443,11 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4270,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4317,38 +4543,41 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
@@ -4364,8 +4593,11 @@
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4383,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4430,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4477,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4524,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4571,37 +4813,40 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
@@ -4618,8 +4863,11 @@
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4665,8 +4913,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4694,8 +4945,8 @@
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>4</v>
@@ -4710,6 +4961,9 @@
         <v>4</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GSFI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSFI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>GSFI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41486</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41394</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41213</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>41121</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>41029</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>40847</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>40755</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,8 +793,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +846,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,43 +1026,46 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1091,26 +1114,29 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
       <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
         <v>100</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,38 +1152,39 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>500</v>
       </c>
       <c r="J17" s="3">
         <v>500</v>
       </c>
       <c r="K17" s="3">
+        <v>500</v>
+      </c>
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1168,16 +1195,19 @@
         <v>0</v>
       </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1185,29 +1215,29 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7600</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-500</v>
       </c>
       <c r="J18" s="3">
         <v>-500</v>
       </c>
       <c r="K18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -1218,16 +1248,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1264,19 +1298,19 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>-100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1296,8 +1330,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,31 +1342,31 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
+      <c r="M21" s="3">
+        <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
@@ -1346,31 +1383,34 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1381,14 +1421,14 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1396,38 +1436,41 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1438,16 +1481,19 @@
         <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,38 +1595,41 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1588,46 +1640,49 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -1638,16 +1693,19 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1864,19 +1934,19 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -1896,38 +1966,41 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -1938,16 +2011,19 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,38 +2072,41 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -2038,71 +2117,77 @@
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41486</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41394</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41213</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>41121</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>41029</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>40847</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>40755</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2227,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2179,11 +2266,11 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -2191,8 +2278,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2331,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2276,23 +2369,26 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2437,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2391,8 +2490,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2441,8 +2543,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2455,12 +2560,12 @@
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3">
         <v>100</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2476,8 +2581,8 @@
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2491,8 +2596,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2500,13 +2608,13 @@
         <v>600</v>
       </c>
       <c r="E48" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>500</v>
       </c>
       <c r="G48" s="3">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="H48" s="3">
         <v>1100</v>
@@ -2521,48 +2629,51 @@
         <v>1100</v>
       </c>
       <c r="L48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M48" s="3">
         <v>200</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
       <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
         <v>1200</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>1300</v>
       </c>
       <c r="R48" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>700</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
+      <c r="E49" s="3">
+        <v>700</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>200</v>
@@ -2570,20 +2681,20 @@
       <c r="K49" s="3">
         <v>200</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="L49" s="3">
+        <v>200</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="3">
-        <v>1400</v>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>1400</v>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,23 +2808,26 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3">
         <v>700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>500</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2723,8 +2843,8 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>800</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H54" s="3">
         <v>1200</v>
       </c>
-      <c r="E54" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>1100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>1200</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1300</v>
       </c>
       <c r="K54" s="3">
         <v>1300</v>
       </c>
       <c r="L54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
         <v>1200</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P54" s="3">
-        <v>2600</v>
+      <c r="P54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q54" s="3">
         <v>2600</v>
       </c>
       <c r="R54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="S54" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3011,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2893,7 +3024,7 @@
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -2910,8 +3041,8 @@
       <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
+      <c r="L57" s="3">
+        <v>100</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
@@ -2931,58 +3062,64 @@
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>800</v>
+      </c>
+      <c r="F58" s="3">
         <v>1100</v>
       </c>
-      <c r="E58" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>800</v>
-      </c>
-      <c r="M58" s="3">
-        <v>600</v>
       </c>
       <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3">
-        <v>400</v>
+      <c r="O58" s="3">
+        <v>600</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>400</v>
       </c>
       <c r="R58" s="3">
+        <v>400</v>
+      </c>
+      <c r="S58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2993,7 +3130,7 @@
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
@@ -3002,13 +3139,13 @@
         <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
@@ -3017,58 +3154,61 @@
         <v>200</v>
       </c>
       <c r="N59" s="3">
+        <v>200</v>
+      </c>
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
-        <v>0</v>
-      </c>
       <c r="O60" s="3">
         <v>0</v>
       </c>
@@ -3081,8 +3221,11 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
-      </c>
-      <c r="M66" s="3">
-        <v>800</v>
       </c>
       <c r="N66" s="3">
         <v>800</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="O66" s="3">
+        <v>800</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="3">
         <v>900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,8 +3772,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3610,49 +3784,52 @@
         <v>-14300</v>
       </c>
       <c r="E72" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-14200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-1400</v>
       </c>
       <c r="M72" s="3">
         <v>-1400</v>
       </c>
       <c r="N72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O72" s="3">
         <v>-2800</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-100</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
       <c r="G76" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H76" s="3">
         <v>200</v>
       </c>
       <c r="I76" s="3">
+        <v>200</v>
+      </c>
+      <c r="J76" s="3">
         <v>100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>600</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-800</v>
       </c>
       <c r="M76" s="3">
         <v>-800</v>
       </c>
       <c r="N76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O76" s="3">
         <v>500</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="3">
         <v>1700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,93 +4090,99 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41486</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41394</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41213</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>41121</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>41029</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>40847</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>40755</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -3998,16 +4193,19 @@
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4058,8 +4257,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
@@ -4067,8 +4266,8 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,41 +4540,44 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>1500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-900</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-1200</v>
       </c>
       <c r="G89" s="3">
         <v>-1200</v>
       </c>
       <c r="H89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-2700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>4</v>
       </c>
@@ -4376,8 +4593,11 @@
       <c r="R89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,31 +4616,32 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>100</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
@@ -4428,8 +4649,8 @@
       <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>-200</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,41 +4773,44 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
@@ -4596,8 +4826,11 @@
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,40 +5059,43 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
@@ -4866,8 +5112,11 @@
       <c r="R100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,8 +5165,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4948,8 +5200,8 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>4</v>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>4</v>
@@ -4964,6 +5216,9 @@
         <v>4</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GSFI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSFI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
   <si>
     <t>GSFI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,90 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41486</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41394</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>41213</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>41121</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>41029</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>40847</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>40755</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,8 +800,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,8 +856,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +912,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +990,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,46 +1046,49 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>600</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1082,8 +1102,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1117,26 +1140,29 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
       <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
         <v>100</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,41 +1179,42 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>-400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>500</v>
       </c>
       <c r="K17" s="3">
         <v>500</v>
       </c>
       <c r="L17" s="3">
+        <v>500</v>
+      </c>
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
@@ -1198,16 +1225,19 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1215,32 +1245,32 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-500</v>
       </c>
       <c r="K18" s="3">
         <v>-500</v>
       </c>
       <c r="L18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -1251,16 +1281,19 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1313,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1301,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>-100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1333,8 +1367,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1342,34 +1379,34 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
+      <c r="N21" s="3">
+        <v>0</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
@@ -1386,8 +1423,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1412,8 +1452,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
@@ -1424,14 +1464,14 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1439,41 +1479,44 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
@@ -1484,16 +1527,19 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1591,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,41 +1647,44 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -1643,49 +1695,52 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -1696,16 +1751,19 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1983,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1937,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -1969,41 +2039,44 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
@@ -2014,16 +2087,19 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,41 +2151,44 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -2120,74 +2199,80 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41486</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41394</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>41213</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>41121</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>41029</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>40847</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>40755</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,8 +2314,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2269,11 +2356,11 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -2281,8 +2368,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,8 +2424,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2372,23 +2465,26 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,8 +2536,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2493,8 +2592,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2546,8 +2648,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2563,12 +2668,12 @@
       <c r="G47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3">
         <v>100</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2584,8 +2689,8 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2599,25 +2704,28 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>100</v>
+      </c>
+      <c r="E48" s="3">
         <v>600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>500</v>
       </c>
       <c r="G48" s="3">
         <v>500</v>
       </c>
       <c r="H48" s="3">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="I48" s="3">
         <v>1100</v>
@@ -2632,28 +2740,31 @@
         <v>1100</v>
       </c>
       <c r="M48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N48" s="3">
         <v>200</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
       <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
         <v>1200</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3">
         <v>1200</v>
-      </c>
-      <c r="R48" s="3">
-        <v>1300</v>
       </c>
       <c r="S48" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2663,20 +2774,20 @@
       <c r="E49" s="3">
         <v>700</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
+      <c r="F49" s="3">
+        <v>700</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
         <v>200</v>
@@ -2684,20 +2795,20 @@
       <c r="L49" s="3">
         <v>200</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="M49" s="3">
+        <v>200</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>1400</v>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>1400</v>
@@ -2705,8 +2816,11 @@
       <c r="S49" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2928,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2822,15 +2942,15 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3">
         <v>700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>500</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2846,8 +2966,8 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2864,8 +2984,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3040,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1200</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1300</v>
       </c>
       <c r="L54" s="3">
         <v>1300</v>
       </c>
       <c r="M54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
         <v>1200</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>2600</v>
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R54" s="3">
         <v>2600</v>
       </c>
       <c r="S54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="T54" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,22 +3142,23 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
-      </c>
-      <c r="E57" s="3">
-        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -3044,8 +3175,8 @@
       <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
+      <c r="M57" s="3">
+        <v>100</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
@@ -3065,61 +3196,67 @@
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
-      </c>
-      <c r="N58" s="3">
-        <v>600</v>
       </c>
       <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>400</v>
+      <c r="P58" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>400</v>
       </c>
       <c r="S58" s="3">
+        <v>400</v>
+      </c>
+      <c r="T58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3133,7 +3270,7 @@
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
@@ -3142,13 +3279,13 @@
         <v>200</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
@@ -3157,61 +3294,64 @@
         <v>200</v>
       </c>
       <c r="O59" s="3">
+        <v>200</v>
+      </c>
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="E60" s="3">
         <v>1100</v>
       </c>
       <c r="F60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
       <c r="P60" s="3">
         <v>0</v>
       </c>
@@ -3224,8 +3364,11 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,8 +3420,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3330,8 +3476,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3644,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="E66" s="3">
         <v>1100</v>
       </c>
       <c r="F66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1000</v>
-      </c>
-      <c r="N66" s="3">
-        <v>800</v>
       </c>
       <c r="O66" s="3">
         <v>800</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="P66" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" s="3">
         <v>900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3946,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1000</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-1400</v>
       </c>
       <c r="N72" s="3">
         <v>-1400</v>
       </c>
       <c r="O72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="P72" s="3">
         <v>-2800</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3">
         <v>-1300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E76" s="3">
         <v>300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-100</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
       <c r="H76" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I76" s="3">
         <v>200</v>
       </c>
       <c r="J76" s="3">
+        <v>200</v>
+      </c>
+      <c r="K76" s="3">
         <v>100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>600</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-800</v>
       </c>
       <c r="N76" s="3">
         <v>-800</v>
       </c>
       <c r="O76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P76" s="3">
         <v>500</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R76" s="3">
         <v>1700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,99 +4282,105 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41486</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41394</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>41213</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>41121</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>41029</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>40847</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>40755</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
@@ -4196,16 +4391,19 @@
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4423,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4260,8 +4459,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
@@ -4269,8 +4468,8 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4278,8 +4477,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,44 +4757,47 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>1500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-1200</v>
       </c>
       <c r="H89" s="3">
         <v>-1200</v>
       </c>
       <c r="I89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-2700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>4</v>
       </c>
@@ -4596,8 +4813,11 @@
       <c r="S89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,34 +4837,35 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>-200</v>
@@ -4652,8 +4873,8 @@
       <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>-200</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -4670,8 +4891,11 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,8 +5003,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4785,35 +5015,35 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
@@ -4829,8 +5059,11 @@
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,43 +5305,46 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>4</v>
@@ -5115,8 +5361,11 @@
       <c r="S100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,8 +5417,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5203,8 +5455,8 @@
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>4</v>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>4</v>
@@ -5219,6 +5471,9 @@
         <v>4</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GSFI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSFI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
   <si>
     <t>GSFI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,94 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41486</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>41394</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>41213</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>41121</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>41029</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>40847</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>40755</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -803,8 +807,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -859,8 +866,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -915,8 +925,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,8 +950,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -993,8 +1007,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,49 +1066,52 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>600</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1105,8 +1125,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1143,26 +1166,29 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
       <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
         <v>100</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,44 +1206,45 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>-400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>500</v>
       </c>
       <c r="L17" s="3">
         <v>500</v>
       </c>
       <c r="M17" s="3">
+        <v>500</v>
+      </c>
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
@@ -1228,16 +1255,19 @@
         <v>0</v>
       </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,35 +1275,35 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7600</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-500</v>
       </c>
       <c r="L18" s="3">
         <v>-500</v>
       </c>
       <c r="M18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
@@ -1284,16 +1314,19 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,8 +1347,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1338,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>-100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1370,8 +1404,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1379,37 +1416,37 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
+      <c r="O21" s="3">
+        <v>0</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
@@ -1426,8 +1463,11 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1455,8 +1495,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1467,14 +1507,14 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1482,8 +1522,11 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1491,35 +1534,35 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
@@ -1530,16 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1594,8 +1640,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,8 +1699,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1659,35 +1711,35 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
@@ -1698,16 +1750,19 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1715,35 +1770,35 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
@@ -1754,16 +1809,19 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1876,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1874,8 +1935,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1994,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,8 +2053,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2010,19 +2080,19 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -2042,8 +2112,11 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2051,35 +2124,35 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
@@ -2090,16 +2163,19 @@
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,8 +2230,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2163,35 +2242,35 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
@@ -2202,77 +2281,83 @@
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41486</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>41394</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>41213</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>41121</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>41029</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>40847</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>40755</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2378,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,8 +2401,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2359,11 +2446,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0</v>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -2371,8 +2458,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2427,8 +2517,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2468,23 +2561,26 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2539,8 +2635,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2595,8 +2694,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2651,8 +2753,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2671,12 +2776,12 @@
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3">
         <v>100</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2692,8 +2797,8 @@
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2707,8 +2812,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2716,19 +2824,19 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
+        <v>100</v>
+      </c>
+      <c r="F48" s="3">
         <v>600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>500</v>
       </c>
       <c r="H48" s="3">
         <v>500</v>
       </c>
       <c r="I48" s="3">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="J48" s="3">
         <v>1100</v>
@@ -2743,28 +2851,31 @@
         <v>1100</v>
       </c>
       <c r="N48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O48" s="3">
         <v>200</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
       <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1200</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3">
         <v>1200</v>
-      </c>
-      <c r="S48" s="3">
-        <v>1300</v>
       </c>
       <c r="T48" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2777,20 +2888,20 @@
       <c r="F49" s="3">
         <v>700</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
+      <c r="G49" s="3">
+        <v>700</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
       </c>
       <c r="K49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L49" s="3">
         <v>200</v>
@@ -2798,20 +2909,20 @@
       <c r="M49" s="3">
         <v>200</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="N49" s="3">
+        <v>200</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R49" s="3">
-        <v>1400</v>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S49" s="3">
         <v>1400</v>
@@ -2819,8 +2930,11 @@
       <c r="T49" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2989,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,8 +3048,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2945,15 +3065,15 @@
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3">
         <v>700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2969,8 +3089,8 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2987,8 +3107,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,8 +3166,11 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3052,55 +3178,58 @@
         <v>800</v>
       </c>
       <c r="E54" s="3">
+        <v>800</v>
+      </c>
+      <c r="F54" s="3">
         <v>1300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1200</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1300</v>
       </c>
       <c r="M54" s="3">
         <v>1300</v>
       </c>
       <c r="N54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1200</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R54" s="3">
-        <v>2600</v>
+      <c r="R54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S54" s="3">
         <v>2600</v>
       </c>
       <c r="T54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="U54" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3250,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,8 +3273,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3152,16 +3283,16 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -3178,8 +3309,8 @@
       <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
+      <c r="N57" s="3">
+        <v>100</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>4</v>
@@ -3199,64 +3330,70 @@
       <c r="T57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
-      </c>
-      <c r="O58" s="3">
-        <v>600</v>
       </c>
       <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R58" s="3">
-        <v>400</v>
+      <c r="Q58" s="3">
+        <v>600</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>400</v>
       </c>
       <c r="T58" s="3">
+        <v>400</v>
+      </c>
+      <c r="U58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3273,7 +3410,7 @@
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
@@ -3282,13 +3419,13 @@
         <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
@@ -3297,64 +3434,67 @@
         <v>200</v>
       </c>
       <c r="P59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
         <v>500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
         <v>900</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1100</v>
       </c>
       <c r="F60" s="3">
         <v>1100</v>
       </c>
       <c r="G60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
       <c r="Q60" s="3">
         <v>0</v>
       </c>
@@ -3367,8 +3507,11 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3423,8 +3566,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3479,8 +3625,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3684,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3743,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,64 +3802,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="3">
         <v>900</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1100</v>
       </c>
       <c r="F66" s="3">
         <v>1100</v>
       </c>
       <c r="G66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1000</v>
-      </c>
-      <c r="O66" s="3">
-        <v>800</v>
       </c>
       <c r="P66" s="3">
         <v>800</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="Q66" s="3">
+        <v>800</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66" s="3">
         <v>900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3886,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3943,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4002,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4061,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4120,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-1400</v>
       </c>
       <c r="O72" s="3">
         <v>-1400</v>
       </c>
       <c r="P72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3">
         <v>-1300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4238,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4297,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,8 +4356,11 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4182,55 +4368,58 @@
         <v>-200</v>
       </c>
       <c r="E76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F76" s="3">
         <v>300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-100</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
       <c r="I76" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J76" s="3">
         <v>200</v>
       </c>
       <c r="K76" s="3">
+        <v>200</v>
+      </c>
+      <c r="L76" s="3">
         <v>100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>600</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-800</v>
       </c>
       <c r="O76" s="3">
         <v>-800</v>
       </c>
       <c r="P76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q76" s="3">
         <v>500</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3">
         <v>1700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,69 +4474,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41486</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>41394</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>41213</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>41121</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>41029</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>40847</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>40755</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4355,35 +4550,35 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
@@ -4394,16 +4589,19 @@
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,8 +4622,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4462,8 +4661,8 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
@@ -4471,8 +4670,8 @@
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4480,8 +4679,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4738,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4797,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4856,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4915,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,47 +4974,50 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>1500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-1200</v>
       </c>
       <c r="I89" s="3">
         <v>-1200</v>
       </c>
       <c r="J89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>4</v>
       </c>
@@ -4816,8 +5033,11 @@
       <c r="T89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,37 +5058,38 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-500</v>
       </c>
       <c r="G91" s="3">
-        <v>100</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>-200</v>
@@ -4876,8 +5097,8 @@
       <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>-200</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
@@ -4894,8 +5115,11 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5174,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,8 +5233,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5018,35 +5248,35 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5062,8 +5292,11 @@
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5317,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5374,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5433,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5492,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,46 +5551,49 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
@@ -5364,8 +5610,11 @@
       <c r="T100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5420,8 +5669,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5458,8 +5710,8 @@
       <c r="N102" s="3">
         <v>0</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>4</v>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>4</v>
@@ -5474,6 +5726,9 @@
         <v>4</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GSFI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSFI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
   <si>
     <t>GSFI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,94 +665,97 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>41486</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>41394</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>41213</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>41121</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>41029</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>40847</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>40755</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -810,8 +813,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -869,8 +875,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -928,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -951,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1010,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1069,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1080,41 +1099,41 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>600</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1128,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1169,26 +1191,29 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
       <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
         <v>100</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1207,8 +1232,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1216,38 +1242,38 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>-400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>500</v>
       </c>
       <c r="M17" s="3">
         <v>500</v>
       </c>
       <c r="N17" s="3">
+        <v>500</v>
+      </c>
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
@@ -1258,16 +1284,19 @@
         <v>0</v>
       </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1275,38 +1304,38 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-500</v>
       </c>
       <c r="M18" s="3">
         <v>-500</v>
       </c>
       <c r="N18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
@@ -1317,16 +1346,19 @@
         <v>0</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1348,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1375,19 +1408,19 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>-100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1407,8 +1440,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1419,37 +1455,37 @@
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
+      <c r="P21" s="3">
+        <v>0</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
@@ -1466,8 +1502,11 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1498,8 +1537,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
@@ -1510,14 +1549,14 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1525,47 +1564,50 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
@@ -1576,16 +1618,19 @@
         <v>0</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1643,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1702,47 +1750,50 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
@@ -1753,55 +1804,58 @@
         <v>0</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
@@ -1812,16 +1866,19 @@
         <v>0</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1879,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1938,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1997,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2056,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2083,19 +2152,19 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2115,47 +2184,50 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
@@ -2166,16 +2238,19 @@
         <v>0</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2233,47 +2308,50 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
@@ -2284,80 +2362,86 @@
         <v>0</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>41486</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>41394</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>41213</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>41121</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>41029</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>40847</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>40755</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2379,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2402,8 +2487,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2449,11 +2535,11 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
@@ -2461,8 +2547,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2520,8 +2609,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2564,23 +2656,26 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2638,8 +2733,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2697,8 +2795,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2756,8 +2857,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2779,12 +2883,12 @@
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="3">
         <v>100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2800,8 +2904,8 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2815,8 +2919,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2827,19 +2934,19 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
+        <v>100</v>
+      </c>
+      <c r="G48" s="3">
         <v>600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>500</v>
       </c>
       <c r="I48" s="3">
         <v>500</v>
       </c>
       <c r="J48" s="3">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K48" s="3">
         <v>1100</v>
@@ -2854,28 +2961,31 @@
         <v>1100</v>
       </c>
       <c r="O48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P48" s="3">
         <v>200</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
       <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
         <v>1200</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="3">
         <v>1200</v>
-      </c>
-      <c r="T48" s="3">
-        <v>1300</v>
       </c>
       <c r="U48" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2891,20 +3001,20 @@
       <c r="G49" s="3">
         <v>700</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
+      <c r="H49" s="3">
+        <v>700</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="3">
-        <v>0</v>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
       <c r="L49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M49" s="3">
         <v>200</v>
@@ -2912,20 +3022,20 @@
       <c r="N49" s="3">
         <v>200</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="O49" s="3">
+        <v>200</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S49" s="3">
-        <v>1400</v>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T49" s="3">
         <v>1400</v>
@@ -2933,8 +3043,11 @@
       <c r="U49" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2992,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3051,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3068,15 +3187,15 @@
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3">
         <v>700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>500</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3092,8 +3211,8 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3110,8 +3229,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3169,8 +3291,11 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3181,55 +3306,58 @@
         <v>800</v>
       </c>
       <c r="F54" s="3">
+        <v>800</v>
+      </c>
+      <c r="G54" s="3">
         <v>1300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1200</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1300</v>
       </c>
       <c r="N54" s="3">
         <v>1300</v>
       </c>
       <c r="O54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
       <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
         <v>1200</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S54" s="3">
-        <v>2600</v>
+      <c r="S54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T54" s="3">
         <v>2600</v>
       </c>
       <c r="U54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="V54" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3251,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3274,8 +3403,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3286,16 +3416,16 @@
         <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -3312,8 +3442,8 @@
       <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
+      <c r="O57" s="3">
+        <v>100</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>4</v>
@@ -3333,72 +3463,78 @@
       <c r="U57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>800</v>
-      </c>
-      <c r="P58" s="3">
-        <v>600</v>
       </c>
       <c r="Q58" s="3">
         <v>600</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S58" s="3">
-        <v>400</v>
+      <c r="R58" s="3">
+        <v>600</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T58" s="3">
         <v>400</v>
       </c>
       <c r="U58" s="3">
+        <v>400</v>
+      </c>
+      <c r="V58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -3413,7 +3549,7 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
@@ -3422,13 +3558,13 @@
         <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
@@ -3437,67 +3573,70 @@
         <v>200</v>
       </c>
       <c r="Q59" s="3">
+        <v>200</v>
+      </c>
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>900</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1100</v>
       </c>
       <c r="G60" s="3">
         <v>1100</v>
       </c>
       <c r="H60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3">
-        <v>0</v>
-      </c>
       <c r="R60" s="3">
         <v>0</v>
       </c>
@@ -3510,8 +3649,11 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3569,8 +3711,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3628,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3687,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3746,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3805,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>900</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1100</v>
       </c>
       <c r="G66" s="3">
         <v>1100</v>
       </c>
       <c r="H66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1000</v>
-      </c>
-      <c r="P66" s="3">
-        <v>800</v>
       </c>
       <c r="Q66" s="3">
         <v>800</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="R66" s="3">
+        <v>800</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T66" s="3">
         <v>900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3887,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3946,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4005,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4064,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4123,8 +4293,11 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4132,58 +4305,61 @@
         <v>-14800</v>
       </c>
       <c r="E72" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-14700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-1400</v>
       </c>
       <c r="P72" s="3">
         <v>-1400</v>
       </c>
       <c r="Q72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="R72" s="3">
         <v>-2800</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T72" s="3">
         <v>-1300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4241,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4300,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4359,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
         <v>-200</v>
       </c>
       <c r="F76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G76" s="3">
         <v>300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-100</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K76" s="3">
         <v>200</v>
       </c>
       <c r="L76" s="3">
+        <v>200</v>
+      </c>
+      <c r="M76" s="3">
         <v>100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>600</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-800</v>
       </c>
       <c r="P76" s="3">
         <v>-800</v>
       </c>
       <c r="Q76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R76" s="3">
         <v>500</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T76" s="3">
         <v>1700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4477,111 +4665,117 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>41486</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>41394</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>41213</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>41121</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>41029</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>40847</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>40755</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
@@ -4592,16 +4786,19 @@
         <v>0</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4623,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4664,8 +4862,8 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>4</v>
@@ -4673,8 +4871,8 @@
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -4682,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4741,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4800,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4859,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4918,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4977,50 +5190,53 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-1200</v>
       </c>
       <c r="J89" s="3">
         <v>-1200</v>
       </c>
       <c r="K89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L89" s="3">
         <v>-2700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>4</v>
       </c>
@@ -5036,8 +5252,11 @@
       <c r="U89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5059,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5071,28 +5291,28 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>-200</v>
@@ -5100,8 +5320,8 @@
       <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>-200</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
@@ -5118,8 +5338,11 @@
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5177,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5236,8 +5462,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5251,35 +5480,35 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5295,8 +5524,11 @@
       <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5318,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5377,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5436,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5495,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5554,8 +5796,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5563,40 +5808,40 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>800</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>4</v>
@@ -5613,8 +5858,11 @@
       <c r="U100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5672,8 +5920,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5713,8 +5964,8 @@
       <c r="O102" s="3">
         <v>0</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>4</v>
+      <c r="P102" s="3">
+        <v>0</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>4</v>
@@ -5729,6 +5980,9 @@
         <v>4</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GSFI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSFI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
   <si>
     <t>GSFI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,101 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>41486</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>41394</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>41213</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>41121</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>41029</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>40847</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>40755</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -816,8 +820,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -878,8 +885,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +950,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1102,41 +1122,41 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>600</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1194,26 +1217,29 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
       <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
         <v>100</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,8 +1259,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1245,38 +1272,38 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>-400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>500</v>
       </c>
       <c r="N17" s="3">
         <v>500</v>
       </c>
       <c r="O17" s="3">
+        <v>500</v>
+      </c>
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
@@ -1287,16 +1314,19 @@
         <v>0</v>
       </c>
       <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1307,38 +1337,38 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7600</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-500</v>
       </c>
       <c r="N18" s="3">
         <v>-500</v>
       </c>
       <c r="O18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
@@ -1349,16 +1379,19 @@
         <v>0</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1414,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1411,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>-100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1443,8 +1477,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1452,43 +1489,43 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
+      <c r="Q21" s="3">
+        <v>0</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
@@ -1505,8 +1542,11 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1540,8 +1580,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
@@ -1552,14 +1592,14 @@
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1567,8 +1607,11 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1576,41 +1619,41 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
@@ -1621,16 +1664,19 @@
         <v>0</v>
       </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1737,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,8 +1802,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1762,41 +1814,41 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
@@ -1807,16 +1859,19 @@
         <v>0</v>
       </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1824,41 +1879,41 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
@@ -1869,16 +1924,19 @@
         <v>0</v>
       </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2192,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2155,19 +2225,19 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2187,8 +2257,11 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2196,41 +2269,41 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
@@ -2241,16 +2314,19 @@
         <v>0</v>
       </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,8 +2387,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2320,41 +2399,41 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
@@ -2365,83 +2444,89 @@
         <v>0</v>
       </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>41486</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>41394</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>41213</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>41121</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>41029</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>40847</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>40755</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,8 +2574,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2538,11 +2625,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T41" s="3">
-        <v>0</v>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
@@ -2550,8 +2637,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,8 +2702,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2659,23 +2752,26 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
+      <c r="R43" s="3">
+        <v>0</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,8 +2832,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2798,8 +2897,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2860,38 +2962,41 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3">
         <v>100</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2907,8 +3012,8 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -2922,13 +3027,16 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -2937,19 +3045,19 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
+        <v>100</v>
+      </c>
+      <c r="H48" s="3">
         <v>600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>500</v>
       </c>
       <c r="J48" s="3">
         <v>500</v>
       </c>
       <c r="K48" s="3">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="L48" s="3">
         <v>1100</v>
@@ -2964,28 +3072,31 @@
         <v>1100</v>
       </c>
       <c r="P48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q48" s="3">
         <v>200</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
       <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
         <v>1200</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U48" s="3">
         <v>1200</v>
-      </c>
-      <c r="U48" s="3">
-        <v>1300</v>
       </c>
       <c r="V48" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3004,20 +3115,20 @@
       <c r="H49" s="3">
         <v>700</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+      <c r="I49" s="3">
+        <v>700</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
       <c r="M49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N49" s="3">
         <v>200</v>
@@ -3025,20 +3136,20 @@
       <c r="O49" s="3">
         <v>200</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="P49" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T49" s="3">
-        <v>1400</v>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U49" s="3">
         <v>1400</v>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3190,15 +3310,15 @@
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3">
         <v>700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>500</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3214,8 +3334,8 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,13 +3417,16 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E54" s="3">
         <v>800</v>
@@ -3309,55 +3435,58 @@
         <v>800</v>
       </c>
       <c r="G54" s="3">
+        <v>800</v>
+      </c>
+      <c r="H54" s="3">
         <v>1300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1200</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1300</v>
       </c>
       <c r="O54" s="3">
         <v>1300</v>
       </c>
       <c r="P54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
         <v>1200</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T54" s="3">
-        <v>2600</v>
+      <c r="T54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U54" s="3">
         <v>2600</v>
       </c>
       <c r="V54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="W54" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3534,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3419,16 +3550,16 @@
         <v>200</v>
       </c>
       <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -3445,8 +3576,8 @@
       <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
+      <c r="P57" s="3">
+        <v>100</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>4</v>
@@ -3466,8 +3597,11 @@
       <c r="V57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3475,69 +3609,72 @@
         <v>400</v>
       </c>
       <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>800</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>600</v>
       </c>
       <c r="R58" s="3">
         <v>600</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T58" s="3">
-        <v>400</v>
+      <c r="S58" s="3">
+        <v>600</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U58" s="3">
         <v>400</v>
       </c>
       <c r="V58" s="3">
+        <v>400</v>
+      </c>
+      <c r="W58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
-      </c>
-      <c r="E59" s="3">
-        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -3552,7 +3689,7 @@
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
@@ -3561,13 +3698,13 @@
         <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
@@ -3576,70 +3713,73 @@
         <v>200</v>
       </c>
       <c r="R59" s="3">
+        <v>200</v>
+      </c>
+      <c r="S59" s="3">
         <v>100</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3">
         <v>500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>900</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1100</v>
       </c>
       <c r="H60" s="3">
         <v>1100</v>
       </c>
       <c r="I60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
-        <v>0</v>
-      </c>
       <c r="S60" s="3">
         <v>0</v>
       </c>
@@ -3652,8 +3792,11 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,31 +3857,34 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
         <v>800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>900</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1100</v>
       </c>
       <c r="H66" s="3">
         <v>1100</v>
       </c>
       <c r="I66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>800</v>
       </c>
       <c r="R66" s="3">
         <v>800</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="S66" s="3">
+        <v>800</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U66" s="3">
         <v>900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,8 +4467,11 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4308,58 +4482,61 @@
         <v>-14800</v>
       </c>
       <c r="F72" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="G72" s="3">
         <v>-14700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-1400</v>
       </c>
       <c r="Q72" s="3">
         <v>-1400</v>
       </c>
       <c r="R72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="S72" s="3">
         <v>-2800</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U72" s="3">
         <v>-1300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
         <v>-100</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-200</v>
       </c>
       <c r="F76" s="3">
         <v>-200</v>
       </c>
       <c r="G76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H76" s="3">
         <v>300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-100</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
       <c r="K76" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L76" s="3">
         <v>200</v>
       </c>
       <c r="M76" s="3">
+        <v>200</v>
+      </c>
+      <c r="N76" s="3">
         <v>100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>600</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-800</v>
       </c>
       <c r="Q76" s="3">
         <v>-800</v>
       </c>
       <c r="R76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S76" s="3">
         <v>500</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U76" s="3">
         <v>1700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,75 +4857,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>41486</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>41394</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>41213</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>41121</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>41029</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>40847</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>40755</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4744,41 +4939,41 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
@@ -4789,16 +4984,19 @@
         <v>0</v>
       </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4865,8 +5064,8 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>4</v>
@@ -4874,8 +5073,8 @@
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,53 +5407,56 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-1200</v>
       </c>
       <c r="K89" s="3">
         <v>-1200</v>
       </c>
       <c r="L89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-2700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>4</v>
       </c>
@@ -5255,8 +5472,11 @@
       <c r="V89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5499,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5294,28 +5515,28 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>-200</v>
@@ -5323,8 +5544,8 @@
       <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
+      <c r="Q91" s="3">
+        <v>-200</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5692,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5483,35 +5713,35 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5527,8 +5757,11 @@
       <c r="V94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,8 +6042,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5811,40 +6057,40 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>4</v>
@@ -5861,8 +6107,11 @@
       <c r="V100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,8 +6172,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5967,8 +6219,8 @@
       <c r="P102" s="3">
         <v>0</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>4</v>
+      <c r="Q102" s="3">
+        <v>0</v>
       </c>
       <c r="R102" s="3" t="s">
         <v>4</v>
@@ -5983,6 +6235,9 @@
         <v>4</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>4</v>
       </c>
     </row>
